--- a/example_input_files/example_CaC.xlsx
+++ b/example_input_files/example_CaC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -32,22 +32,22 @@
     <t xml:space="preserve">end</t>
   </si>
   <si>
-    <t xml:space="preserve">Crisis-A-11_S11_L001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crisis-B-14_S14_L001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crisis-C-17_S17_L001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-A-2_S2_L001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-B-5_S5_L001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-C-8_S8_L001</t>
+    <t xml:space="preserve">Crisis-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crisis-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crisis-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-C</t>
   </si>
   <si>
     <t xml:space="preserve">chr1</t>
@@ -131,6 +131,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,7 +196,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,38 +325,38 @@
   </sheetPr>
   <dimension ref="A1:DE5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1"/>
@@ -460,118 +461,118 @@
       <c r="DE1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>14889</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>14954</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>2492.24634470536</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>842.578289566072</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>358.487184083169</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>878.763222131814</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>1619.02118604866</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>1447.67419711227</v>
       </c>
       <c r="J5" s="1"/>
@@ -693,125 +694,125 @@
   </sheetPr>
   <dimension ref="A1:DE4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>39309638</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>39309953</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>55.3832521045635</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>1485.77088650996</v>
       </c>
       <c r="J4" s="1"/>
